--- a/raw_data/20200818_saline/20200818_Sensor1_Test_36.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_36.xlsx
@@ -1,1596 +1,2012 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C7581-5498-4E2A-85FC-0360A8D62F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>31685.555553</v>
+        <v>31685.555552999998</v>
       </c>
       <c r="B2" s="1">
-        <v>8.801543</v>
+        <v>8.8015430000000006</v>
       </c>
       <c r="C2" s="1">
-        <v>901.611000</v>
+        <v>901.61099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.954000</v>
+        <v>-202.95400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>31696.258736</v>
       </c>
       <c r="G2" s="1">
-        <v>8.804516</v>
+        <v>8.8045159999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>919.964000</v>
+        <v>919.96400000000006</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.880000</v>
+        <v>-171.88</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>31706.701955</v>
       </c>
       <c r="L2" s="1">
-        <v>8.807417</v>
+        <v>8.8074169999999992</v>
       </c>
       <c r="M2" s="1">
-        <v>943.931000</v>
+        <v>943.93100000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.704000</v>
+        <v>-121.70399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>31717.189365</v>
+        <v>31717.189364999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.810330</v>
+        <v>8.8103300000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>950.615000</v>
+        <v>950.61500000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.000000</v>
+        <v>-105</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>31727.404470</v>
+        <v>31727.404470000001</v>
       </c>
       <c r="V2" s="1">
-        <v>8.813168</v>
+        <v>8.8131679999999992</v>
       </c>
       <c r="W2" s="1">
-        <v>957.200000</v>
+        <v>957.2</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.383300</v>
+        <v>-89.383300000000006</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>31737.855672</v>
+        <v>31737.855672000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.816071</v>
+        <v>8.8160710000000009</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.361000</v>
+        <v>964.36099999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.272800</v>
+        <v>-77.272800000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>31748.725498</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.819090</v>
+        <v>8.8190899999999992</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.112000</v>
+        <v>969.11199999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.051200</v>
+        <v>-75.051199999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>31758.915341</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.821921</v>
+        <v>8.8219209999999997</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.217000</v>
+        <v>976.21699999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.521800</v>
+        <v>-79.521799999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>31769.186463</v>
+        <v>31769.186462999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.824774</v>
+        <v>8.8247739999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.177000</v>
+        <v>984.17700000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.965400</v>
+        <v>-90.965400000000002</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>31779.751746</v>
+        <v>31779.751746000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.827709</v>
+        <v>8.8277090000000005</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.925000</v>
+        <v>993.92499999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>31790.534275</v>
+        <v>31790.534275000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.830704</v>
+        <v>8.8307040000000008</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.210000</v>
+        <v>-124.21</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>31801.439317</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.833733</v>
+        <v>8.8337330000000005</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.364000</v>
+        <v>-196.364</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>31812.415782</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.836782</v>
+        <v>8.8367819999999995</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.990000</v>
+        <v>-313.99</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>31823.187400</v>
+        <v>31823.187399999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.839774</v>
+        <v>8.8397740000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.668000</v>
+        <v>-499.66800000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>31833.547338</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.842652</v>
+        <v>8.8426519999999993</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.140000</v>
+        <v>1336.14</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.870000</v>
+        <v>-703.87</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>31844.255965</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.845627</v>
+        <v>8.8456270000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.960000</v>
+        <v>1472.96</v>
       </c>
       <c r="CA2" s="1">
-        <v>-921.157000</v>
+        <v>-921.15700000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>31855.085613</v>
+        <v>31855.085612999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.848635</v>
+        <v>8.8486349999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1832.030000</v>
+        <v>1832.03</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1439.090000</v>
+        <v>-1439.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>31686.254381</v>
+        <v>31686.254380999999</v>
       </c>
       <c r="B3" s="1">
-        <v>8.801737</v>
+        <v>8.8017369999999993</v>
       </c>
       <c r="C3" s="1">
-        <v>901.718000</v>
+        <v>901.71799999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-203.186000</v>
+        <v>-203.18600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>31696.602447</v>
+        <v>31696.602447000001</v>
       </c>
       <c r="G3" s="1">
-        <v>8.804612</v>
+        <v>8.8046120000000005</v>
       </c>
       <c r="H3" s="1">
-        <v>919.995000</v>
+        <v>919.995</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.810000</v>
+        <v>-171.81</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>31707.075473</v>
+        <v>31707.075473000001</v>
       </c>
       <c r="L3" s="1">
-        <v>8.807521</v>
+        <v>8.8075209999999995</v>
       </c>
       <c r="M3" s="1">
-        <v>943.944000</v>
+        <v>943.94399999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.803000</v>
+        <v>-121.803</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>31717.555907</v>
+        <v>31717.555907000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.810432</v>
+        <v>8.8104320000000005</v>
       </c>
       <c r="R3" s="1">
-        <v>950.596000</v>
+        <v>950.596</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.047000</v>
+        <v>-105.047</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>31728.081510</v>
+        <v>31728.08151</v>
       </c>
       <c r="V3" s="1">
-        <v>8.813356</v>
+        <v>8.8133560000000006</v>
       </c>
       <c r="W3" s="1">
-        <v>957.200000</v>
+        <v>957.2</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.388700</v>
+        <v>-89.3887</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>31738.540152</v>
+        <v>31738.540152000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.816261</v>
+        <v>8.8162610000000008</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.475000</v>
+        <v>964.47500000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.445000</v>
+        <v>-77.444999999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>31749.129770</v>
+        <v>31749.12977</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.819203</v>
+        <v>8.8192029999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.066000</v>
+        <v>969.06600000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.040200</v>
+        <v>-75.040199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>31759.267475</v>
+        <v>31759.267475000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.822019</v>
+        <v>8.8220189999999992</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.199000</v>
+        <v>976.19899999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.559200</v>
+        <v>-79.559200000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>31769.549039</v>
+        <v>31769.549039000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.824875</v>
+        <v>8.8248750000000005</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.188000</v>
+        <v>984.18799999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.978600</v>
+        <v>-90.9786</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>31780.146065</v>
+        <v>31780.146065000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.827818</v>
+        <v>8.8278180000000006</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.903000</v>
+        <v>993.90300000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.562000</v>
+        <v>-108.562</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>31790.944008</v>
+        <v>31790.944007999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.830818</v>
+        <v>8.8308180000000007</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.166000</v>
+        <v>-124.166</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>31801.856948</v>
+        <v>31801.856948000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.833849</v>
+        <v>8.8338490000000007</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.160000</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.391000</v>
+        <v>-196.39099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>31812.522454</v>
+        <v>31812.522454000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.836812</v>
+        <v>8.8368120000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.370000</v>
+        <v>1106.3699999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.010000</v>
+        <v>-314.01</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>31823.594615</v>
+        <v>31823.594615000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.839887</v>
+        <v>8.8398869999999992</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.674000</v>
+        <v>-499.67399999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>31833.990265</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.842775</v>
+        <v>8.8427749999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.150000</v>
+        <v>1336.15</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.792000</v>
+        <v>-703.79200000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>31844.719723</v>
+        <v>31844.719722999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.845755</v>
+        <v>8.8457550000000005</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.900000</v>
+        <v>1472.9</v>
       </c>
       <c r="CA3" s="1">
-        <v>-921.095000</v>
+        <v>-921.09500000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>31855.645101</v>
+        <v>31855.645100999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.848790</v>
+        <v>8.8487899999999993</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.970000</v>
+        <v>1831.97</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1437.350000</v>
+        <v>-1437.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>31686.595132</v>
+        <v>31686.595131999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.801832</v>
+        <v>8.8018319999999992</v>
       </c>
       <c r="C4" s="1">
-        <v>901.834000</v>
+        <v>901.83399999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.011000</v>
+        <v>-203.011</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>31696.949615</v>
+        <v>31696.949615000001</v>
       </c>
       <c r="G4" s="1">
-        <v>8.804708</v>
+        <v>8.8047079999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>920.009000</v>
+        <v>920.00900000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.872000</v>
+        <v>-171.87200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>31707.722747</v>
       </c>
       <c r="L4" s="1">
-        <v>8.807701</v>
+        <v>8.8077009999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>943.917000</v>
+        <v>943.91700000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.651000</v>
+        <v>-121.651</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>31718.210664</v>
+        <v>31718.210663999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.810614</v>
+        <v>8.8106139999999993</v>
       </c>
       <c r="R4" s="1">
-        <v>950.613000</v>
+        <v>950.61300000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.018000</v>
+        <v>-105.018</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>31728.460950</v>
+        <v>31728.460950000001</v>
       </c>
       <c r="V4" s="1">
-        <v>8.813461</v>
+        <v>8.8134610000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>957.185000</v>
+        <v>957.18499999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.492000</v>
+        <v>-89.492000000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>31738.928051</v>
+        <v>31738.928050999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.816369</v>
+        <v>8.8163689999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.402000</v>
+        <v>964.40200000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.524400</v>
+        <v>-77.5244</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>31749.473466</v>
+        <v>31749.473465999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.819298</v>
+        <v>8.8192979999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.067000</v>
+        <v>969.06700000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.000300</v>
+        <v>-75.000299999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>31759.615660</v>
+        <v>31759.615659999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.822115</v>
+        <v>8.8221150000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.206000</v>
+        <v>976.20600000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.555000</v>
+        <v>-79.555000000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>31769.906656</v>
+        <v>31769.906655999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.824974</v>
+        <v>8.8249739999999992</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.221000</v>
+        <v>984.221</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.974600</v>
+        <v>-90.974599999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>31780.563236</v>
+        <v>31780.563236000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.827934</v>
+        <v>8.8279340000000008</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.916000</v>
+        <v>993.91600000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.569000</v>
+        <v>-108.569</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>31791.284226</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.830912</v>
+        <v>8.8309119999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>31802.191748</v>
+        <v>31802.191748000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.833942</v>
+        <v>8.8339420000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.160000</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.377000</v>
+        <v>-196.37700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>31812.882553</v>
+        <v>31812.882552999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.836912</v>
+        <v>8.8369119999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.320000</v>
+        <v>1106.32</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.966000</v>
+        <v>-313.96600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>31824.017239</v>
+        <v>31824.017239000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.840005</v>
+        <v>8.8400049999999997</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.694000</v>
+        <v>-499.69400000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>31834.427737</v>
+        <v>31834.427737000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.842897</v>
+        <v>8.8428970000000007</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.100000</v>
+        <v>1336.1</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.747000</v>
+        <v>-703.74699999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>31845.165627</v>
+        <v>31845.165626999998</v>
       </c>
       <c r="BY4" s="1">
         <v>8.845879</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="CA4" s="1">
-        <v>-921.142000</v>
+        <v>-921.14200000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>31856.180319</v>
+        <v>31856.180318999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.848939</v>
+        <v>8.8489389999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.680000</v>
+        <v>1830.68</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1438.490000</v>
+        <v>-1438.49</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>31686.936381</v>
       </c>
       <c r="B5" s="1">
-        <v>8.801927</v>
+        <v>8.8019269999999992</v>
       </c>
       <c r="C5" s="1">
-        <v>901.665000</v>
+        <v>901.66499999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.961000</v>
+        <v>-202.96100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>31697.608623</v>
       </c>
       <c r="G5" s="1">
-        <v>8.804891</v>
+        <v>8.8048909999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>919.632000</v>
+        <v>919.63199999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-172.217000</v>
+        <v>-172.21700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>31708.112112</v>
+        <v>31708.112111999999</v>
       </c>
       <c r="L5" s="1">
-        <v>8.807809</v>
+        <v>8.8078090000000007</v>
       </c>
       <c r="M5" s="1">
-        <v>943.682000</v>
+        <v>943.68200000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.788000</v>
+        <v>-121.788</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>31718.599986</v>
+        <v>31718.599986000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.810722</v>
+        <v>8.8107220000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>950.681000</v>
+        <v>950.68100000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.995000</v>
+        <v>-104.995</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>31728.805838</v>
       </c>
       <c r="V5" s="1">
-        <v>8.813557</v>
+        <v>8.8135569999999994</v>
       </c>
       <c r="W5" s="1">
-        <v>957.242000</v>
+        <v>957.24199999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.487000</v>
+        <v>-89.486999999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>31739.276247</v>
+        <v>31739.276247000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.816466</v>
+        <v>8.8164660000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.388000</v>
+        <v>964.38800000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.426500</v>
+        <v>-77.426500000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>31749.818681</v>
+        <v>31749.818681000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.819394</v>
+        <v>8.8193940000000008</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.067000</v>
+        <v>969.06700000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.977000</v>
+        <v>-74.977000000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>31760.032300</v>
+        <v>31760.032299999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.822231</v>
+        <v>8.8222310000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.216000</v>
+        <v>976.21600000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.554600</v>
+        <v>-79.554599999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>31770.331230</v>
+        <v>31770.33123</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.825092</v>
+        <v>8.8250919999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.200000</v>
+        <v>984.2</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.963600</v>
+        <v>-90.9636</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>31780.876175</v>
+        <v>31780.876175000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.828021</v>
+        <v>8.8280209999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.915000</v>
+        <v>993.91499999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.570000</v>
+        <v>-108.57</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>31791.640851</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.831011</v>
+        <v>8.8310110000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.174000</v>
+        <v>-124.17400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>31802.549861</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.834042</v>
+        <v>8.8340420000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.360000</v>
+        <v>-196.36</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>31813.255510</v>
+        <v>31813.255509999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.837015</v>
+        <v>8.8370149999999992</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.370000</v>
+        <v>1106.3699999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.987000</v>
+        <v>-313.98700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>31824.439334</v>
+        <v>31824.439333999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.840122</v>
+        <v>8.8401219999999991</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.701000</v>
+        <v>-499.70100000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>31834.852345</v>
+        <v>31834.852344999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.843015</v>
+        <v>8.8430149999999994</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.020000</v>
+        <v>1336.02</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.676000</v>
+        <v>-703.67600000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>31845.598138</v>
+        <v>31845.598138000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.845999</v>
+        <v>8.8459990000000008</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-921.108000</v>
+        <v>-921.10799999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>31856.723435</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.849090</v>
+        <v>8.8490900000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>1832.540000</v>
+        <v>1832.54</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1438.650000</v>
+        <v>-1438.65</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>31687.607467</v>
+        <v>31687.607467000002</v>
       </c>
       <c r="B6" s="1">
-        <v>8.802113</v>
+        <v>8.8021130000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>901.695000</v>
+        <v>901.69500000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-203.146000</v>
+        <v>-203.14599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>31697.982781</v>
+        <v>31697.982780999999</v>
       </c>
       <c r="G6" s="1">
-        <v>8.804995</v>
+        <v>8.8049949999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.012000</v>
+        <v>920.01199999999994</v>
       </c>
       <c r="I6" s="1">
-        <v>-172.098000</v>
+        <v>-172.09800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>31708.457802</v>
+        <v>31708.457802000001</v>
       </c>
       <c r="L6" s="1">
-        <v>8.807905</v>
+        <v>8.8079049999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>943.731000</v>
+        <v>943.73099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.812000</v>
+        <v>-121.812</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>31718.946691</v>
+        <v>31718.946691000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.810819</v>
+        <v>8.8108190000000004</v>
       </c>
       <c r="R6" s="1">
-        <v>950.650000</v>
+        <v>950.65</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.036000</v>
+        <v>-105.036</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>31729.148935</v>
+        <v>31729.148935000001</v>
       </c>
       <c r="V6" s="1">
-        <v>8.813652</v>
+        <v>8.8136519999999994</v>
       </c>
       <c r="W6" s="1">
-        <v>957.225000</v>
+        <v>957.22500000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.440000</v>
+        <v>-89.44</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>31739.694839</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.816582</v>
+        <v>8.8165820000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.356000</v>
+        <v>964.35599999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.371500</v>
+        <v>-77.371499999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>31750.232377</v>
@@ -1599,709 +2015,709 @@
         <v>8.819509</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.076000</v>
+        <v>969.07600000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.036400</v>
+        <v>-75.0364</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>31760.327420</v>
+        <v>31760.327420000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.822313</v>
+        <v>8.8223129999999994</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.202000</v>
+        <v>976.202</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.541900</v>
+        <v>-79.541899999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>31770.628830</v>
+        <v>31770.628830000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.825175</v>
+        <v>8.8251749999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.201000</v>
+        <v>984.20100000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.969000</v>
+        <v>-90.968999999999994</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>31781.295791</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.828138</v>
+        <v>8.8281379999999992</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.902000</v>
+        <v>993.90200000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.566000</v>
+        <v>-108.566</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>31791.998962</v>
+        <v>31791.998962000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.831111</v>
+        <v>8.8311109999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.171000</v>
+        <v>-124.17100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>31802.911474</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.834142</v>
+        <v>8.8341419999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.170000</v>
+        <v>1040.17</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.365000</v>
+        <v>-196.36500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>31814.005991</v>
+        <v>31814.005991000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.837224</v>
+        <v>8.8372240000000009</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.350000</v>
+        <v>1106.3499999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.005000</v>
+        <v>-314.005</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>31824.836597</v>
+        <v>31824.836597000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.840232</v>
+        <v>8.8402320000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.685000</v>
+        <v>-499.685</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>31835.266013</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.843129</v>
+        <v>8.8431289999999994</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.000000</v>
+        <v>1336</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.634000</v>
+        <v>-703.63400000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>31846.017791</v>
+        <v>31846.017790999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.846116</v>
+        <v>8.8461160000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.000000</v>
+        <v>1473</v>
       </c>
       <c r="CA6" s="1">
-        <v>-921.032000</v>
+        <v>-921.03200000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>31857.574042</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.849326</v>
+        <v>8.8493259999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.830000</v>
+        <v>1830.83</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1438.890000</v>
+        <v>-1438.89</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>31687.966570</v>
+        <v>31687.966570000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8.802213</v>
+        <v>8.8022130000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>901.813000</v>
+        <v>901.81299999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.240000</v>
+        <v>-203.24</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>31698.327042</v>
+        <v>31698.327042000001</v>
       </c>
       <c r="G7" s="1">
-        <v>8.805091</v>
+        <v>8.8050909999999991</v>
       </c>
       <c r="H7" s="1">
-        <v>920.033000</v>
+        <v>920.03300000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.799000</v>
+        <v>-171.79900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>31708.804527</v>
       </c>
       <c r="L7" s="1">
-        <v>8.808001</v>
+        <v>8.8080010000000009</v>
       </c>
       <c r="M7" s="1">
-        <v>943.903000</v>
+        <v>943.90300000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.686000</v>
+        <v>-121.68600000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>31719.297397</v>
+        <v>31719.297396999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.810916</v>
+        <v>8.8109160000000006</v>
       </c>
       <c r="R7" s="1">
-        <v>950.625000</v>
+        <v>950.625</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.043000</v>
+        <v>-105.04300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>31729.563076</v>
+        <v>31729.563075999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.813768</v>
+        <v>8.8137679999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>957.218000</v>
+        <v>957.21799999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.444900</v>
+        <v>-89.444900000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>31739.975581</v>
+        <v>31739.975580999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.816660</v>
+        <v>8.8166600000000006</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.463000</v>
+        <v>964.46299999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.394500</v>
+        <v>-77.394499999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>31750.511593</v>
+        <v>31750.511592999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.819587</v>
+        <v>8.8195870000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.042000</v>
+        <v>969.04200000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.032400</v>
+        <v>-75.032399999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>31760.673132</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.822409</v>
+        <v>8.8224090000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.219000</v>
+        <v>976.21900000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.551300</v>
+        <v>-79.551299999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>31770.990414</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.825275</v>
+        <v>8.8252749999999995</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.190000</v>
+        <v>984.19</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.968900</v>
+        <v>-90.968900000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>31781.660350</v>
+        <v>31781.660349999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.828239</v>
+        <v>8.8282389999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.912000</v>
+        <v>993.91200000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.568000</v>
+        <v>-108.568</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>31792.717168</v>
+        <v>31792.717167999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.831310</v>
+        <v>8.8313100000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.030000</v>
+        <v>1002.03</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.175000</v>
+        <v>-124.175</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>31803.631634</v>
+        <v>31803.631634000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.834342</v>
+        <v>8.8343419999999995</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.363000</v>
+        <v>-196.363</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>31814.382420</v>
+        <v>31814.382420000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.837328</v>
+        <v>8.8373279999999994</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.370000</v>
+        <v>1106.3699999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.981000</v>
+        <v>-313.98099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>31825.256711</v>
+        <v>31825.256711000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.840349</v>
+        <v>8.8403489999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.713000</v>
+        <v>-499.71300000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>31835.694555</v>
+        <v>31835.694554999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.843248</v>
+        <v>8.8432480000000009</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.990000</v>
+        <v>1335.99</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.545000</v>
+        <v>-703.54499999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>31846.749848</v>
+        <v>31846.749847999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.846319</v>
+        <v>8.8463189999999994</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.870000</v>
+        <v>1472.87</v>
       </c>
       <c r="CA7" s="1">
-        <v>-921.054000</v>
+        <v>-921.05399999999997</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>31857.805178</v>
+        <v>31857.805177999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.849390</v>
+        <v>8.8493899999999996</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.100000</v>
+        <v>1831.1</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1438.680000</v>
+        <v>-1438.68</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>31688.305339</v>
+        <v>31688.305338999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.802307</v>
+        <v>8.8023070000000008</v>
       </c>
       <c r="C8" s="1">
-        <v>901.581000</v>
+        <v>901.58100000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-203.196000</v>
+        <v>-203.196</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>31698.674206</v>
       </c>
       <c r="G8" s="1">
-        <v>8.805187</v>
+        <v>8.8051870000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>920.623000</v>
+        <v>920.62300000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.571000</v>
+        <v>-171.571</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>31709.219652</v>
       </c>
       <c r="L8" s="1">
-        <v>8.808117</v>
+        <v>8.8081169999999993</v>
       </c>
       <c r="M8" s="1">
-        <v>943.833000</v>
+        <v>943.83299999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.627000</v>
+        <v>-121.627</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>31719.722434</v>
+        <v>31719.722433999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.811034</v>
+        <v>8.8110339999999994</v>
       </c>
       <c r="R8" s="1">
-        <v>950.621000</v>
+        <v>950.62099999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.046000</v>
+        <v>-105.04600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>31729.863173</v>
+        <v>31729.863173000002</v>
       </c>
       <c r="V8" s="1">
-        <v>8.813851</v>
+        <v>8.8138509999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>957.257000</v>
+        <v>957.25699999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.488100</v>
+        <v>-89.488100000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>31740.321285</v>
+        <v>31740.321285000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.816756</v>
+        <v>8.8167559999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.371000</v>
+        <v>964.37099999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.426400</v>
+        <v>-77.426400000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>31750.854337</v>
+        <v>31750.854337000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.819682</v>
+        <v>8.8196820000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.078000</v>
+        <v>969.07799999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.030800</v>
+        <v>-75.030799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>31761.022315</v>
+        <v>31761.022314999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.822506</v>
+        <v>8.8225060000000006</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.210000</v>
+        <v>976.21</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.546400</v>
+        <v>-79.546400000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>31771.352492</v>
+        <v>31771.352492000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.825376</v>
+        <v>8.8253760000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.206000</v>
+        <v>984.20600000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.948900</v>
+        <v>-90.948899999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>31782.390488</v>
+        <v>31782.390488000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.828442</v>
+        <v>8.8284420000000008</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.904000</v>
+        <v>993.904</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.569000</v>
+        <v>-108.569</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>31793.101569</v>
+        <v>31793.101568999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.831417</v>
+        <v>8.8314170000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.020000</v>
+        <v>1002.02</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.177000</v>
+        <v>-124.17700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>31803.992723</v>
+        <v>31803.992722999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.834442</v>
+        <v>8.8344419999999992</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.366000</v>
+        <v>-196.36600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>31814.757923</v>
+        <v>31814.757923000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.837433</v>
+        <v>8.8374330000000008</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.014000</v>
+        <v>-314.01400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>31825.968996</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.840547</v>
+        <v>8.8405470000000008</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.666000</v>
+        <v>-499.666</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>31836.434550</v>
+        <v>31836.434550000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.843454</v>
+        <v>8.8434539999999995</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.050000</v>
+        <v>1336.05</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.503000</v>
+        <v>-703.50300000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>31846.865943</v>
+        <v>31846.865943000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.846352</v>
+        <v>8.8463519999999995</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA8" s="1">
-        <v>-921.041000</v>
+        <v>-921.04100000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>31858.321017</v>
+        <v>31858.321016999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.849534</v>
+        <v>8.8495340000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1832.140000</v>
+        <v>1832.14</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1439.080000</v>
+        <v>-1439.08</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>31688.645594</v>
+        <v>31688.645594000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.802402</v>
+        <v>8.8024020000000007</v>
       </c>
       <c r="C9" s="1">
-        <v>901.708000</v>
+        <v>901.70799999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-203.226000</v>
+        <v>-203.226</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>31699.107708</v>
       </c>
       <c r="G9" s="1">
-        <v>8.805308</v>
+        <v>8.8053080000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>920.081000</v>
+        <v>920.08100000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.916000</v>
+        <v>-171.916</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>31709.492446</v>
@@ -2310,465 +2726,465 @@
         <v>8.808192</v>
       </c>
       <c r="M9" s="1">
-        <v>943.762000</v>
+        <v>943.76199999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.791000</v>
+        <v>-121.791</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>31719.998704</v>
+        <v>31719.998704000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.811111</v>
+        <v>8.8111110000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>950.579000</v>
+        <v>950.57899999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.004000</v>
+        <v>-105.004</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>31730.204386</v>
+        <v>31730.204386000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.813946</v>
+        <v>8.8139459999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>957.309000</v>
+        <v>957.30899999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.473100</v>
+        <v>-89.473100000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>31740.673942</v>
+        <v>31740.673942000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.816854</v>
+        <v>8.8168539999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.419000</v>
+        <v>964.41899999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.343900</v>
+        <v>-77.343900000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>31751.198091</v>
+        <v>31751.198090999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.819777</v>
+        <v>8.8197770000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.074000</v>
+        <v>969.07399999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.046800</v>
+        <v>-75.046800000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>31761.721177</v>
+        <v>31761.721176999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.822700</v>
+        <v>8.8226999999999993</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.208000</v>
+        <v>976.20799999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.525400</v>
+        <v>-79.525400000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>31772.126251</v>
+        <v>31772.126251000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.825591</v>
+        <v>8.8255909999999993</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.193000</v>
+        <v>984.19299999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.952600</v>
+        <v>-90.952600000000004</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>31782.781343</v>
+        <v>31782.781342999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.828550</v>
+        <v>8.8285499999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.904000</v>
+        <v>993.904</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.581000</v>
+        <v>-108.581</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>31793.482495</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.831523</v>
+        <v>8.8315230000000007</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.171000</v>
+        <v>-124.17100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>31804.356327</v>
+        <v>31804.356327000001</v>
       </c>
       <c r="BE9" s="1">
         <v>8.834543</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.160000</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.374000</v>
+        <v>-196.374</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>31815.443858</v>
+        <v>31815.443857999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.837623</v>
+        <v>8.8376230000000007</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.380000</v>
+        <v>1106.3800000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.007000</v>
+        <v>-314.00700000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>31826.080353</v>
+        <v>31826.080353000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.840578</v>
+        <v>8.8405780000000007</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.707000</v>
+        <v>-499.70699999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>31836.571479</v>
+        <v>31836.571478999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.843492</v>
+        <v>8.8434919999999995</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.090000</v>
+        <v>1336.09</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.455000</v>
+        <v>-703.45500000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>31847.311881</v>
+        <v>31847.311881000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.846476</v>
+        <v>8.8464759999999991</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-921.133000</v>
+        <v>-921.13300000000004</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>31858.842314</v>
+        <v>31858.842314000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.849678</v>
+        <v>8.8496780000000008</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.930000</v>
+        <v>1831.93</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1439.090000</v>
+        <v>-1439.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>31689.144571</v>
+        <v>31689.144571000001</v>
       </c>
       <c r="B10" s="1">
-        <v>8.802540</v>
+        <v>8.8025400000000005</v>
       </c>
       <c r="C10" s="1">
-        <v>901.727000</v>
+        <v>901.72699999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-203.268000</v>
+        <v>-203.268</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>31699.381997</v>
       </c>
       <c r="G10" s="1">
-        <v>8.805384</v>
+        <v>8.8053840000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.563000</v>
+        <v>920.56299999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-172.117000</v>
+        <v>-172.11699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>31709.841631</v>
+        <v>31709.841630999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.808289</v>
+        <v>8.8082890000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>943.801000</v>
+        <v>943.80100000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.680000</v>
+        <v>-121.68</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>31720.345903</v>
+        <v>31720.345903000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.811207</v>
+        <v>8.8112069999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>950.575000</v>
+        <v>950.57500000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.977000</v>
+        <v>-104.977</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>31730.546627</v>
       </c>
       <c r="V10" s="1">
-        <v>8.814041</v>
+        <v>8.8140409999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>957.170000</v>
+        <v>957.17</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.442600</v>
+        <v>-89.442599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>31741.370821</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.817047</v>
+        <v>8.8170470000000005</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.466000</v>
+        <v>964.46600000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.336000</v>
+        <v>-77.335999999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>31751.882072</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.819967</v>
+        <v>8.8199670000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.065000</v>
+        <v>969.06500000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.052500</v>
+        <v>-75.052499999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>31762.070362</v>
+        <v>31762.070361999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.822797</v>
+        <v>8.8227969999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.218000</v>
+        <v>976.21799999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.523800</v>
+        <v>-79.523799999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>31772.460555</v>
+        <v>31772.460555000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.825683</v>
+        <v>8.8256829999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.187000</v>
+        <v>984.18700000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.996600</v>
+        <v>-90.996600000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>31783.144877</v>
+        <v>31783.144876999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.828651</v>
+        <v>8.8286510000000007</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.902000</v>
+        <v>993.90200000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.571000</v>
+        <v>-108.571</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>31794.148622</v>
+        <v>31794.148622000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.831708</v>
+        <v>8.8317080000000008</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>31805.032140</v>
+        <v>31805.032139999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.834731</v>
+        <v>8.8347309999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.355000</v>
+        <v>-196.35499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>31815.883844</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.837746</v>
+        <v>8.8377459999999992</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.976000</v>
+        <v>-313.976</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>31826.503683</v>
+        <v>31826.503682999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.840695</v>
+        <v>8.8406950000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.686000</v>
+        <v>-499.68599999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>31836.985110</v>
+        <v>31836.985110000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.843607</v>
+        <v>8.8436070000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.180000</v>
+        <v>1336.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.432000</v>
+        <v>-703.43200000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>31847.745321</v>
+        <v>31847.745320999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.846596</v>
+        <v>8.8465959999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.970000</v>
+        <v>1472.97</v>
       </c>
       <c r="CA10" s="1">
-        <v>-921.128000</v>
+        <v>-921.12800000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>31859.392376</v>
@@ -2777,2508 +3193,2508 @@
         <v>8.849831</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.050000</v>
+        <v>1831.05</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1439.100000</v>
+        <v>-1439.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>31689.357353</v>
+        <v>31689.357352999999</v>
       </c>
       <c r="B11" s="1">
-        <v>8.802599</v>
+        <v>8.8025990000000007</v>
       </c>
       <c r="C11" s="1">
-        <v>901.789000</v>
+        <v>901.78899999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.333000</v>
+        <v>-203.333</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>31699.724883</v>
+        <v>31699.724882999999</v>
       </c>
       <c r="G11" s="1">
-        <v>8.805479</v>
+        <v>8.8054790000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>920.151000</v>
+        <v>920.15099999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-172.104000</v>
+        <v>-172.10400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>31710.188829</v>
+        <v>31710.188828999999</v>
       </c>
       <c r="L11" s="1">
-        <v>8.808386</v>
+        <v>8.8083860000000005</v>
       </c>
       <c r="M11" s="1">
-        <v>943.853000</v>
+        <v>943.85299999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.825000</v>
+        <v>-121.825</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>31720.695583</v>
+        <v>31720.695583000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.811304</v>
+        <v>8.8113039999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>950.615000</v>
+        <v>950.61500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.954000</v>
+        <v>-104.95399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>31731.235073</v>
       </c>
       <c r="V11" s="1">
-        <v>8.814232</v>
+        <v>8.8142320000000005</v>
       </c>
       <c r="W11" s="1">
-        <v>957.277000</v>
+        <v>957.27700000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.470500</v>
+        <v>-89.470500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>31741.717555</v>
+        <v>31741.717554999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.817144</v>
+        <v>8.8171440000000008</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.342000</v>
+        <v>964.34199999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.402900</v>
+        <v>-77.402900000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>31752.227255</v>
+        <v>31752.227255000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.820063</v>
+        <v>8.8200629999999993</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.059000</v>
+        <v>969.05899999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.038100</v>
+        <v>-75.0381</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>31762.415116</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.822893</v>
+        <v>8.8228930000000005</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.210000</v>
+        <v>976.21</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.538300</v>
+        <v>-79.538300000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>31773.111803</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.825864</v>
+        <v>8.8258639999999993</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.184000</v>
+        <v>984.18399999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.968500</v>
+        <v>-90.968500000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>31783.835336</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.828843</v>
+        <v>8.8288430000000009</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.918000</v>
+        <v>993.91800000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.582000</v>
+        <v>-108.58199999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>31794.568270</v>
+        <v>31794.56827</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.831825</v>
+        <v>8.8318250000000003</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.030000</v>
+        <v>1002.03</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.211000</v>
+        <v>-124.211</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>31805.462404</v>
+        <v>31805.462404000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.834851</v>
+        <v>8.8348510000000005</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.370000</v>
+        <v>-196.37</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>31816.259317</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.837850</v>
+        <v>8.8378499999999995</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.370000</v>
+        <v>1106.3699999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.992000</v>
+        <v>-313.99200000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>31826.904915</v>
+        <v>31826.904914999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.840807</v>
+        <v>8.8408069999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.714000</v>
+        <v>-499.714</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>31837.410677</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.843725</v>
+        <v>8.8437249999999992</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.140000</v>
+        <v>1336.14</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.445000</v>
+        <v>-703.44500000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>31848.164935</v>
+        <v>31848.164935000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.846712</v>
+        <v>8.8467120000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA11" s="1">
-        <v>-921.081000</v>
+        <v>-921.08100000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>31859.922143</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.849978</v>
+        <v>8.8499780000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1832.280000</v>
+        <v>1832.28</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1439.180000</v>
+        <v>-1439.18</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>31689.703065</v>
+        <v>31689.703065000002</v>
       </c>
       <c r="B12" s="1">
-        <v>8.802695</v>
+        <v>8.8026949999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>901.808000</v>
+        <v>901.80799999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.880000</v>
+        <v>-202.88</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>31700.070972</v>
+        <v>31700.070972000001</v>
       </c>
       <c r="G12" s="1">
-        <v>8.805575</v>
+        <v>8.8055749999999993</v>
       </c>
       <c r="H12" s="1">
-        <v>919.900000</v>
+        <v>919.9</v>
       </c>
       <c r="I12" s="1">
-        <v>-172.168000</v>
+        <v>-172.16800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>31710.878268</v>
       </c>
       <c r="L12" s="1">
-        <v>8.808577</v>
+        <v>8.8085769999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>943.594000</v>
+        <v>943.59400000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.679000</v>
+        <v>-121.679</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>31721.391012</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.811498</v>
+        <v>8.8114980000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>950.639000</v>
+        <v>950.63900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.003000</v>
+        <v>-105.003</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>31731.577810</v>
+        <v>31731.577809999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.814327</v>
+        <v>8.8143270000000005</v>
       </c>
       <c r="W12" s="1">
-        <v>957.271000</v>
+        <v>957.27099999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.425300</v>
+        <v>-89.425299999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>31742.064260</v>
+        <v>31742.064259999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.817240</v>
+        <v>8.81724</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.399000</v>
+        <v>964.399</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.418700</v>
+        <v>-77.418700000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>31752.570490</v>
+        <v>31752.570489999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.820158</v>
+        <v>8.8201579999999993</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.081000</v>
+        <v>969.08100000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.024800</v>
+        <v>-75.024799999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>31763.068809</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.823075</v>
+        <v>8.8230749999999993</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.226000</v>
+        <v>976.226</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.524300</v>
+        <v>-79.524299999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>31773.538857</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.825983</v>
+        <v>8.8259830000000008</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.207000</v>
+        <v>984.20699999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.974700</v>
+        <v>-90.974699999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>31784.264844</v>
+        <v>31784.264844000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.828962</v>
+        <v>8.8289620000000006</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.920000</v>
+        <v>993.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.573000</v>
+        <v>-108.57299999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>31794.943213</v>
+        <v>31794.943212999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.831929</v>
+        <v>8.8319290000000006</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.159000</v>
+        <v>-124.15900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>31805.824448</v>
+        <v>31805.824447999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.834951</v>
+        <v>8.8349510000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.160000</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.373000</v>
+        <v>-196.37299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>31816.639218</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.837955</v>
+        <v>8.8379549999999991</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.350000</v>
+        <v>1106.3499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.029000</v>
+        <v>-314.029</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>31827.325524</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.840924</v>
+        <v>8.8409239999999993</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.724000</v>
+        <v>-499.72399999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>31837.827318</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.843841</v>
+        <v>8.8438409999999994</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.230000</v>
+        <v>1336.23</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.367000</v>
+        <v>-703.36699999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>31848.587031</v>
+        <v>31848.587030999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.846830</v>
+        <v>8.8468300000000006</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.850000</v>
+        <v>1472.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-921.194000</v>
+        <v>-921.19399999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>31860.438936</v>
+        <v>31860.438935999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.850122</v>
+        <v>8.8501220000000007</v>
       </c>
       <c r="CE12" s="1">
-        <v>1832.460000</v>
+        <v>1832.46</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1437.740000</v>
+        <v>-1437.74</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>31690.384567</v>
+        <v>31690.384567000001</v>
       </c>
       <c r="B13" s="1">
-        <v>8.802885</v>
+        <v>8.8028849999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>901.795000</v>
+        <v>901.79499999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-203.268000</v>
+        <v>-203.268</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>31700.761401</v>
       </c>
       <c r="G13" s="1">
-        <v>8.805767</v>
+        <v>8.8057669999999995</v>
       </c>
       <c r="H13" s="1">
-        <v>920.061000</v>
+        <v>920.06100000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-172.036000</v>
+        <v>-172.036</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>31711.226460</v>
+        <v>31711.226460000002</v>
       </c>
       <c r="L13" s="1">
-        <v>8.808674</v>
+        <v>8.8086739999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>943.708000</v>
+        <v>943.70799999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.671000</v>
+        <v>-121.67100000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>31721.741687</v>
+        <v>31721.741687000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.811595</v>
+        <v>8.8115950000000005</v>
       </c>
       <c r="R13" s="1">
-        <v>950.605000</v>
+        <v>950.60500000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.994000</v>
+        <v>-104.994</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>31731.923024</v>
       </c>
       <c r="V13" s="1">
-        <v>8.814423</v>
+        <v>8.8144229999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>957.311000</v>
+        <v>957.31100000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.407000</v>
+        <v>-89.406999999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>31742.724898</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.817424</v>
+        <v>8.8174240000000008</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.368000</v>
+        <v>964.36800000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.401800</v>
+        <v>-77.401799999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>31753.220251</v>
+        <v>31753.220250999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.820339</v>
+        <v>8.8203390000000006</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.085000</v>
+        <v>969.08500000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.054600</v>
+        <v>-75.054599999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>31763.460183</v>
+        <v>31763.460182999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.823183</v>
+        <v>8.8231830000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.207000</v>
+        <v>976.20699999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.556600</v>
+        <v>-79.556600000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>31773.897993</v>
+        <v>31773.897992999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.826083</v>
+        <v>8.8260830000000006</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.215000</v>
+        <v>984.21500000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.967100</v>
+        <v>-90.967100000000002</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>31784.631387</v>
+        <v>31784.631387000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.829064</v>
+        <v>8.8290640000000007</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.900000</v>
+        <v>993.9</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.568000</v>
+        <v>-108.568</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>31795.325164</v>
+        <v>31795.325164000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.832035</v>
+        <v>8.8320349999999994</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>31806.236162</v>
+        <v>31806.236162000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.835066</v>
+        <v>8.8350659999999994</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.170000</v>
+        <v>1040.17</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.352000</v>
+        <v>-196.352</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>31817.064558</v>
+        <v>31817.064557999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.838073</v>
+        <v>8.8380729999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.022000</v>
+        <v>-314.02199999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>31827.720338</v>
+        <v>31827.720337999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.841033</v>
+        <v>8.8410329999999995</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.500000</v>
+        <v>1214.5</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.714000</v>
+        <v>-499.714</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>31838.239989</v>
+        <v>31838.239989000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.843956</v>
+        <v>8.8439560000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.250000</v>
+        <v>1336.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.364000</v>
+        <v>-703.36400000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>31849.015115</v>
+        <v>31849.015114999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.846949</v>
+        <v>8.8469490000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.950000</v>
+        <v>1472.95</v>
       </c>
       <c r="CA13" s="1">
-        <v>-921.107000</v>
+        <v>-921.10699999999997</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>31860.957254</v>
+        <v>31860.957254000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.850266</v>
+        <v>8.8502659999999995</v>
       </c>
       <c r="CE13" s="1">
-        <v>1831.090000</v>
+        <v>1831.09</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1437.950000</v>
+        <v>-1437.95</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>31690.725817</v>
+        <v>31690.725816999999</v>
       </c>
       <c r="B14" s="1">
-        <v>8.802979</v>
+        <v>8.8029790000000006</v>
       </c>
       <c r="C14" s="1">
-        <v>901.721000</v>
+        <v>901.721</v>
       </c>
       <c r="D14" s="1">
-        <v>-203.389000</v>
+        <v>-203.38900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>31701.106089</v>
+        <v>31701.106089000001</v>
       </c>
       <c r="G14" s="1">
-        <v>8.805863</v>
+        <v>8.8058630000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>919.998000</v>
+        <v>919.99800000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.854000</v>
+        <v>-171.85400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>31711.569724</v>
+        <v>31711.569724000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.808769</v>
+        <v>8.8087689999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>943.715000</v>
+        <v>943.71500000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.731000</v>
+        <v>-121.73099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>31722.087853</v>
+        <v>31722.087853000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.811691</v>
+        <v>8.8116909999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>950.589000</v>
+        <v>950.58900000000006</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.985000</v>
+        <v>-104.985</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>31732.579770</v>
+        <v>31732.57977</v>
       </c>
       <c r="V14" s="1">
-        <v>8.814605</v>
+        <v>8.8146050000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>957.190000</v>
+        <v>957.19</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.428500</v>
+        <v>-89.4285</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>31743.113761</v>
+        <v>31743.113761000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.817532</v>
+        <v>8.8175319999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.485000</v>
+        <v>964.48500000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.441400</v>
+        <v>-77.441400000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>31753.600181</v>
+        <v>31753.600181000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.820444</v>
+        <v>8.8204440000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.067000</v>
+        <v>969.06700000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.063300</v>
+        <v>-75.063299999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>31763.810854</v>
+        <v>31763.810853999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.823281</v>
+        <v>8.8232809999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.220000</v>
+        <v>976.22</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.521400</v>
+        <v>-79.5214</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>31774.247146</v>
+        <v>31774.247146000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.826180</v>
+        <v>8.8261800000000008</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.195000</v>
+        <v>984.19500000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.981800</v>
+        <v>-90.981800000000007</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>31784.996939</v>
+        <v>31784.996939000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.829166</v>
+        <v>8.8291660000000007</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.897000</v>
+        <v>993.89700000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.589000</v>
+        <v>-108.589</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>31795.739293</v>
+        <v>31795.739292999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.832150</v>
+        <v>8.8321500000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.203000</v>
+        <v>-124.203</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>31806.546623</v>
+        <v>31806.546622999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.835152</v>
+        <v>8.8351520000000008</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.170000</v>
+        <v>1040.17</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.355000</v>
+        <v>-196.35499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>31817.412015</v>
+        <v>31817.412015000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.838170</v>
+        <v>8.8381699999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.992000</v>
+        <v>-313.99200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>31828.142435</v>
+        <v>31828.142435000002</v>
       </c>
       <c r="BO14" s="1">
         <v>8.841151</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.717000</v>
+        <v>-499.71699999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>31838.658611</v>
+        <v>31838.658610999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.844072</v>
+        <v>8.8440720000000006</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.302000</v>
+        <v>-703.30200000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>31849.430262</v>
+        <v>31849.430262000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.847064</v>
+        <v>8.8470639999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.990000</v>
+        <v>1472.99</v>
       </c>
       <c r="CA14" s="1">
-        <v>-921.089000</v>
+        <v>-921.08900000000006</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>31861.477356</v>
+        <v>31861.477355999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.850410</v>
+        <v>8.8504100000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.270000</v>
+        <v>1831.27</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1437.830000</v>
+        <v>-1437.83</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>31691.077000</v>
+        <v>31691.077000000001</v>
       </c>
       <c r="B15" s="1">
         <v>8.803077</v>
       </c>
       <c r="C15" s="1">
-        <v>901.734000</v>
+        <v>901.73400000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-203.486000</v>
+        <v>-203.48599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>31701.446841</v>
+        <v>31701.446841000001</v>
       </c>
       <c r="G15" s="1">
-        <v>8.805957</v>
+        <v>8.8059569999999994</v>
       </c>
       <c r="H15" s="1">
-        <v>920.268000</v>
+        <v>920.26800000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.863000</v>
+        <v>-171.863</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>31712.220470</v>
+        <v>31712.22047</v>
       </c>
       <c r="L15" s="1">
-        <v>8.808950</v>
+        <v>8.8089499999999994</v>
       </c>
       <c r="M15" s="1">
-        <v>943.655000</v>
+        <v>943.65499999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.621000</v>
+        <v>-121.621</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>31722.532765</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.811815</v>
+        <v>8.8118149999999993</v>
       </c>
       <c r="R15" s="1">
-        <v>950.549000</v>
+        <v>950.54899999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.992000</v>
+        <v>-104.992</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>31732.958176</v>
       </c>
       <c r="V15" s="1">
-        <v>8.814711</v>
+        <v>8.8147110000000009</v>
       </c>
       <c r="W15" s="1">
-        <v>957.242000</v>
+        <v>957.24199999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.440900</v>
+        <v>-89.440899999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>31743.459969</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.817628</v>
+        <v>8.8176279999999991</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.488000</v>
+        <v>964.48800000000006</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.407300</v>
+        <v>-77.407300000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>31753.943909</v>
+        <v>31753.943909000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.820540</v>
+        <v>8.8205399999999994</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.079000</v>
+        <v>969.07899999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.045700</v>
+        <v>-75.045699999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>31764.160501</v>
+        <v>31764.160500999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.823378</v>
+        <v>8.8233779999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.237000</v>
+        <v>976.23699999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.513500</v>
+        <v>-79.513499999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>31774.687593</v>
+        <v>31774.687592999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.826302</v>
+        <v>8.8263020000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.193000</v>
+        <v>984.19299999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.971000</v>
+        <v>-90.971000000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>31785.420026</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.829283</v>
+        <v>8.8292830000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.897000</v>
+        <v>993.89700000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.535000</v>
+        <v>-108.535</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>31796.040363</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.832233</v>
+        <v>8.8322330000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.120000</v>
+        <v>1002.12</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.195000</v>
+        <v>-124.19499999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>31806.910685</v>
+        <v>31806.910684999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.835253</v>
+        <v>8.8352529999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.359000</v>
+        <v>-196.35900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>31817.789935</v>
+        <v>31817.789935000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.838275</v>
+        <v>8.8382749999999994</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.996000</v>
+        <v>-313.99599999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>31828.539234</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.841261</v>
+        <v>8.8412609999999994</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.679000</v>
+        <v>-499.67899999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>31839.077235</v>
+        <v>31839.077235000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.844188</v>
+        <v>8.8441880000000008</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.450000</v>
+        <v>1336.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.362000</v>
+        <v>-703.36199999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>31849.880100</v>
+        <v>31849.880099999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.847189</v>
+        <v>8.8471890000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.880000</v>
+        <v>1472.88</v>
       </c>
       <c r="CA15" s="1">
-        <v>-921.167000</v>
+        <v>-921.16700000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>31862.029637</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.850564</v>
+        <v>8.8505640000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.230000</v>
+        <v>1832.23</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1437.600000</v>
+        <v>-1437.6</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>31691.727270</v>
+        <v>31691.727269999999</v>
       </c>
       <c r="B16" s="1">
-        <v>8.803258</v>
+        <v>8.8032579999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>901.814000</v>
+        <v>901.81399999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-203.204000</v>
+        <v>-203.20400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>31702.108147</v>
+        <v>31702.108146999999</v>
       </c>
       <c r="G16" s="1">
-        <v>8.806141</v>
+        <v>8.8061410000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>920.067000</v>
+        <v>920.06700000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-172.345000</v>
+        <v>-172.345</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>31712.606330</v>
+        <v>31712.606329999999</v>
       </c>
       <c r="L16" s="1">
-        <v>8.809057</v>
+        <v>8.8090569999999992</v>
       </c>
       <c r="M16" s="1">
-        <v>943.881000</v>
+        <v>943.88099999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.820000</v>
+        <v>-121.82</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>31722.802125</v>
+        <v>31722.802124999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.811889</v>
+        <v>8.8118890000000007</v>
       </c>
       <c r="R16" s="1">
-        <v>950.577000</v>
+        <v>950.577</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.952000</v>
+        <v>-104.952</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>31733.305377</v>
+        <v>31733.305377000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.814807</v>
+        <v>8.8148070000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>957.226000</v>
+        <v>957.226</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.415000</v>
+        <v>-89.415000000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>31743.809684</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.817725</v>
+        <v>8.8177249999999994</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.426000</v>
+        <v>964.42600000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.429600</v>
+        <v>-77.429599999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>31754.274279</v>
+        <v>31754.274279000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.820632</v>
+        <v>8.8206319999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.081000</v>
+        <v>969.08100000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.026900</v>
+        <v>-75.026899999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>31764.587062</v>
+        <v>31764.587061999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.823496</v>
+        <v>8.8234960000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.203000</v>
+        <v>976.20299999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.517000</v>
+        <v>-79.516999999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>31774.975805</v>
+        <v>31774.975804999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.826382</v>
+        <v>8.8263820000000006</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.210000</v>
+        <v>984.21</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.972500</v>
+        <v>-90.972499999999997</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>31785.725561</v>
+        <v>31785.725560999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.829368</v>
+        <v>8.8293680000000005</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.891000</v>
+        <v>993.89099999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.572000</v>
+        <v>-108.572</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>31796.626635</v>
+        <v>31796.626635000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.832396</v>
+        <v>8.8323959999999992</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.184000</v>
+        <v>-124.184</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>31807.269323</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.835353</v>
+        <v>8.8353529999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.190000</v>
+        <v>1040.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.368000</v>
+        <v>-196.36799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>31818.168410</v>
+        <v>31818.168409999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.838380</v>
+        <v>8.8383800000000008</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.006000</v>
+        <v>-314.00599999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>31828.960832</v>
+        <v>31828.960832000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.841378</v>
+        <v>8.8413780000000006</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.718000</v>
+        <v>-499.71800000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>31839.486963</v>
+        <v>31839.486962999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.844302</v>
+        <v>8.8443020000000008</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.450000</v>
+        <v>1336.45</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.342000</v>
+        <v>-703.34199999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>31850.301732</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.847306</v>
+        <v>8.8473059999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.960000</v>
+        <v>1472.96</v>
       </c>
       <c r="CA16" s="1">
-        <v>-921.152000</v>
+        <v>-921.15200000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>31862.559827</v>
+        <v>31862.559827000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.850711</v>
+        <v>8.8507110000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.990000</v>
+        <v>1830.99</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1437.720000</v>
+        <v>-1437.72</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>31692.100761</v>
+        <v>31692.100761000002</v>
       </c>
       <c r="B17" s="1">
-        <v>8.803361</v>
+        <v>8.8033610000000007</v>
       </c>
       <c r="C17" s="1">
-        <v>901.851000</v>
+        <v>901.851</v>
       </c>
       <c r="D17" s="1">
-        <v>-203.380000</v>
+        <v>-203.38</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>31702.484471</v>
       </c>
       <c r="G17" s="1">
-        <v>8.806246</v>
+        <v>8.8062459999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>920.212000</v>
+        <v>920.21199999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.958000</v>
+        <v>-171.958</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>31712.953033</v>
+        <v>31712.953033000002</v>
       </c>
       <c r="L17" s="1">
-        <v>8.809154</v>
+        <v>8.8091539999999995</v>
       </c>
       <c r="M17" s="1">
-        <v>943.654000</v>
+        <v>943.654</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.783000</v>
+        <v>-121.783</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>31723.148300</v>
+        <v>31723.148300000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.811986</v>
+        <v>8.8119859999999992</v>
       </c>
       <c r="R17" s="1">
-        <v>950.628000</v>
+        <v>950.62800000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.965000</v>
+        <v>-104.965</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>31733.648143</v>
+        <v>31733.648142999999</v>
       </c>
       <c r="V17" s="1">
         <v>8.814902</v>
       </c>
       <c r="W17" s="1">
-        <v>957.257000</v>
+        <v>957.25699999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.485700</v>
+        <v>-89.485699999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>31744.233270</v>
+        <v>31744.233270000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.817843</v>
+        <v>8.8178429999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.515000</v>
+        <v>964.51499999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.370000</v>
+        <v>-77.37</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>31754.717170</v>
+        <v>31754.71717</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.820755</v>
+        <v>8.8207550000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.068000</v>
+        <v>969.06799999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.017500</v>
+        <v>-75.017499999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>31764.865849</v>
+        <v>31764.865849000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.823574</v>
+        <v>8.8235740000000007</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.220000</v>
+        <v>976.22</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.559900</v>
+        <v>-79.559899999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>31775.337352</v>
+        <v>31775.337351999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.826483</v>
+        <v>8.8264829999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.208000</v>
+        <v>984.20799999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.970000</v>
+        <v>-90.97</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>31786.089625</v>
+        <v>31786.089625000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.829469</v>
+        <v>8.8294689999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.905000</v>
+        <v>993.90499999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.564000</v>
+        <v>-108.56399999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>31797.018973</v>
+        <v>31797.018972999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.832505</v>
+        <v>8.8325049999999994</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.174000</v>
+        <v>-124.17400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>31807.992461</v>
+        <v>31807.992461000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.835553</v>
+        <v>8.8355530000000009</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.361000</v>
+        <v>-196.36099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>31818.938671</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.838594</v>
+        <v>8.8385940000000005</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.390000</v>
+        <v>1106.3900000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.996000</v>
+        <v>-313.99599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>31829.359616</v>
+        <v>31829.359616000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.841489</v>
+        <v>8.8414889999999993</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.706000</v>
+        <v>-499.70600000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>31839.898610</v>
+        <v>31839.89861</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.844416</v>
+        <v>8.8444160000000007</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.329000</v>
+        <v>-703.32899999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>31850.723338</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.847423</v>
+        <v>8.8474229999999991</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.990000</v>
+        <v>1472.99</v>
       </c>
       <c r="CA17" s="1">
-        <v>-921.147000</v>
+        <v>-921.14700000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>31863.389667</v>
+        <v>31863.389666999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.850942</v>
+        <v>8.8509419999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.010000</v>
+        <v>1831.01</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1439.210000</v>
+        <v>-1439.21</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>31692.446470</v>
+        <v>31692.446469999999</v>
       </c>
       <c r="B18" s="1">
-        <v>8.803457</v>
+        <v>8.8034569999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>901.708000</v>
+        <v>901.70799999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.375000</v>
+        <v>-203.375</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>31702.828695</v>
       </c>
       <c r="G18" s="1">
-        <v>8.806341</v>
+        <v>8.8063409999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>919.929000</v>
+        <v>919.92899999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.790000</v>
+        <v>-171.79</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>31713.300265</v>
+        <v>31713.300265000002</v>
       </c>
       <c r="L18" s="1">
-        <v>8.809250</v>
+        <v>8.8092500000000005</v>
       </c>
       <c r="M18" s="1">
-        <v>943.825000</v>
+        <v>943.82500000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.794000</v>
+        <v>-121.794</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>31723.565436</v>
+        <v>31723.565436000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.812102</v>
+        <v>8.8121019999999994</v>
       </c>
       <c r="R18" s="1">
-        <v>950.612000</v>
+        <v>950.61199999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.029000</v>
+        <v>-105.029</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>31734.059325</v>
+        <v>31734.059324999998</v>
       </c>
       <c r="V18" s="1">
         <v>8.815016</v>
       </c>
       <c r="W18" s="1">
-        <v>957.278000</v>
+        <v>957.27800000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.442500</v>
+        <v>-89.442499999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>31744.514465</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.817921</v>
+        <v>8.8179210000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.359000</v>
+        <v>964.35900000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.298600</v>
+        <v>-77.298599999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>31754.977074</v>
+        <v>31754.977073999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.820827</v>
+        <v>8.8208269999999995</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.050000</v>
+        <v>969.05</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.037400</v>
+        <v>-75.037400000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>31765.216981</v>
+        <v>31765.216981000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.823671</v>
+        <v>8.8236709999999992</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.228000</v>
+        <v>976.22799999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.530000</v>
+        <v>-79.53</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>31775.698935</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.826583</v>
+        <v>8.8265829999999994</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.200000</v>
+        <v>984.2</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.978000</v>
+        <v>-90.977999999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>31786.455709</v>
+        <v>31786.455709000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.829571</v>
+        <v>8.8295709999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.895000</v>
+        <v>993.89499999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.572000</v>
+        <v>-108.572</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>31797.757515</v>
+        <v>31797.757515000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.832710</v>
+        <v>8.8327100000000005</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.177000</v>
+        <v>-124.17700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>31808.382329</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.835662</v>
+        <v>8.8356619999999992</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.190000</v>
+        <v>1040.19</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.362000</v>
+        <v>-196.36199999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>31819.316126</v>
+        <v>31819.316126000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.838699</v>
+        <v>8.8386990000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.360000</v>
+        <v>1106.3599999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.024000</v>
+        <v>-314.024</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>31829.777282</v>
+        <v>31829.777281999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.841605</v>
+        <v>8.8416049999999995</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.712000</v>
+        <v>-499.71199999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>31840.617844</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.844616</v>
+        <v>8.8446160000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.600000</v>
+        <v>1336.6</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.407000</v>
+        <v>-703.40700000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>31851.476724</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.847632</v>
+        <v>8.8476320000000008</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA18" s="1">
-        <v>-921.175000</v>
+        <v>-921.17499999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>31863.594482</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.850998</v>
+        <v>8.8509980000000006</v>
       </c>
       <c r="CE18" s="1">
-        <v>1832.350000</v>
+        <v>1832.35</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1438.610000</v>
+        <v>-1438.61</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>31692.789705</v>
+        <v>31692.789704999999</v>
       </c>
       <c r="B19" s="1">
-        <v>8.803553</v>
+        <v>8.8035530000000008</v>
       </c>
       <c r="C19" s="1">
-        <v>901.883000</v>
+        <v>901.88300000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-203.352000</v>
+        <v>-203.352</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>31703.174606</v>
       </c>
       <c r="G19" s="1">
-        <v>8.806437</v>
+        <v>8.8064370000000007</v>
       </c>
       <c r="H19" s="1">
-        <v>919.901000</v>
+        <v>919.90099999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.962000</v>
+        <v>-171.96199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>31713.709960</v>
+        <v>31713.70996</v>
       </c>
       <c r="L19" s="1">
-        <v>8.809364</v>
+        <v>8.8093640000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>943.768000</v>
+        <v>943.76800000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.820000</v>
+        <v>-121.82</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>31723.848155</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.812180</v>
+        <v>8.8121799999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>950.665000</v>
+        <v>950.66499999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.062000</v>
+        <v>-105.062</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>31734.346013</v>
+        <v>31734.346012999998</v>
       </c>
       <c r="V19" s="1">
-        <v>8.815096</v>
+        <v>8.8150960000000005</v>
       </c>
       <c r="W19" s="1">
-        <v>957.221000</v>
+        <v>957.221</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.467600</v>
+        <v>-89.467600000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>31744.863183</v>
+        <v>31744.863183000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.818018</v>
+        <v>8.8180180000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.415000</v>
+        <v>964.41499999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.440400</v>
+        <v>-77.440399999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>31755.320013</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.820922</v>
+        <v>8.8209219999999995</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.116000</v>
+        <v>969.11599999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.045400</v>
+        <v>-75.045400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>31765.564676</v>
+        <v>31765.564676000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.823768</v>
+        <v>8.8237679999999994</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.206000</v>
+        <v>976.20600000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.543300</v>
+        <v>-79.543300000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>31776.419126</v>
+        <v>31776.419126000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.826783</v>
+        <v>8.8267830000000007</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.231000</v>
+        <v>984.23099999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.972100</v>
+        <v>-90.972099999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>31787.183814</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.829773</v>
+        <v>8.8297729999999994</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.924000</v>
+        <v>993.92399999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.556000</v>
+        <v>-108.556</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>31798.115638</v>
+        <v>31798.115637999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.832810</v>
+        <v>8.8328100000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.189000</v>
+        <v>-124.18899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>31808.765336</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.835768</v>
+        <v>8.8357679999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.170000</v>
+        <v>1040.17</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.386000</v>
+        <v>-196.386</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>31819.691132</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.838803</v>
+        <v>8.8388030000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.350000</v>
+        <v>1106.3499999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.987000</v>
+        <v>-313.98700000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>31830.490495</v>
+        <v>31830.490494999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.841803</v>
+        <v>8.8418030000000005</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.727000</v>
+        <v>-499.72699999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>31840.755707</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.844654</v>
+        <v>8.8446540000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.650000</v>
+        <v>1336.65</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.430000</v>
+        <v>-703.43</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>31851.601747</v>
+        <v>31851.601747000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.847667</v>
+        <v>8.8476669999999995</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA19" s="1">
-        <v>-921.243000</v>
+        <v>-921.24300000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>31864.112803</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.851142</v>
+        <v>8.8511419999999994</v>
       </c>
       <c r="CE19" s="1">
-        <v>1832.070000</v>
+        <v>1832.07</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1439.110000</v>
+        <v>-1439.11</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>31693.217748</v>
+        <v>31693.217747999999</v>
       </c>
       <c r="B20" s="1">
-        <v>8.803672</v>
+        <v>8.8036720000000006</v>
       </c>
       <c r="C20" s="1">
-        <v>901.855000</v>
+        <v>901.85500000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-203.149000</v>
+        <v>-203.149</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>31703.596037</v>
+        <v>31703.596036999999</v>
       </c>
       <c r="G20" s="1">
-        <v>8.806554</v>
+        <v>8.8065540000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>920.552000</v>
+        <v>920.55200000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-172.038000</v>
+        <v>-172.03800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>31714.007034</v>
+        <v>31714.007033999998</v>
       </c>
       <c r="L20" s="1">
-        <v>8.809446</v>
+        <v>8.8094459999999994</v>
       </c>
       <c r="M20" s="1">
-        <v>943.957000</v>
+        <v>943.95699999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.971000</v>
+        <v>-121.971</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>31724.195888</v>
+        <v>31724.195887999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.812277</v>
+        <v>8.8122769999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>950.614000</v>
+        <v>950.61400000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.052000</v>
+        <v>-105.05200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>31734.690238</v>
+        <v>31734.690237999999</v>
       </c>
       <c r="V20" s="1">
-        <v>8.815192</v>
+        <v>8.8151919999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>957.287000</v>
+        <v>957.28700000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.489400</v>
+        <v>-89.489400000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>31745.209889</v>
+        <v>31745.209889000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.818114</v>
+        <v>8.8181139999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.377000</v>
+        <v>964.37699999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.404400</v>
+        <v>-77.404399999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>31756.006769</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.821113</v>
+        <v>8.8211130000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.088000</v>
+        <v>969.08799999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.024100</v>
+        <v>-75.024100000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>31766.258114</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.823961</v>
+        <v>8.8239610000000006</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.205000</v>
+        <v>976.20500000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.521100</v>
+        <v>-79.521100000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>31776.780744</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.826884</v>
+        <v>8.8268839999999997</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.200000</v>
+        <v>984.2</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.964600</v>
+        <v>-90.964600000000004</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>31787.548857</v>
+        <v>31787.548857000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.829875</v>
+        <v>8.8298749999999995</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.907000</v>
+        <v>993.90700000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.570000</v>
+        <v>-108.57</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>31798.474729</v>
+        <v>31798.474729000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.832910</v>
+        <v>8.83291</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>31809.435359</v>
+        <v>31809.435358999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.835954</v>
+        <v>8.8359539999999992</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.377000</v>
+        <v>-196.37700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>31820.368637</v>
@@ -5287,1617 +5703,1618 @@
         <v>8.838991</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.390000</v>
+        <v>1106.3900000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.003000</v>
+        <v>-314.00299999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>31830.613370</v>
+        <v>31830.613369999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.841837</v>
+        <v>8.8418369999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.730000</v>
+        <v>-499.73</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>31841.192672</v>
+        <v>31841.192672000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.844776</v>
+        <v>8.8447759999999995</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.710000</v>
+        <v>1336.71</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.525000</v>
+        <v>-703.52499999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>31852.038690</v>
+        <v>31852.038690000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.847789</v>
+        <v>8.8477890000000006</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.010000</v>
+        <v>1473.01</v>
       </c>
       <c r="CA20" s="1">
-        <v>-921.028000</v>
+        <v>-921.02800000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>31864.665841</v>
+        <v>31864.665841000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.851296</v>
+        <v>8.8512959999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1831.330000</v>
+        <v>1831.33</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1439.000000</v>
+        <v>-1439</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>31693.490051</v>
+        <v>31693.490051000001</v>
       </c>
       <c r="B21" s="1">
-        <v>8.803747</v>
+        <v>8.8037469999999995</v>
       </c>
       <c r="C21" s="1">
-        <v>901.685000</v>
+        <v>901.68499999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-203.189000</v>
+        <v>-203.18899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>31703.868311</v>
+        <v>31703.868310999998</v>
       </c>
       <c r="G21" s="1">
-        <v>8.806630</v>
+        <v>8.8066300000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>919.974000</v>
+        <v>919.97400000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-172.107000</v>
+        <v>-172.107</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>31714.355720</v>
+        <v>31714.35572</v>
       </c>
       <c r="L21" s="1">
-        <v>8.809543</v>
+        <v>8.8095429999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>943.827000</v>
+        <v>943.827</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.865000</v>
+        <v>-121.86499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>31724.547050</v>
+        <v>31724.547050000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.812374</v>
+        <v>8.8123740000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>950.551000</v>
+        <v>950.55100000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.974000</v>
+        <v>-104.974</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>31735.035946</v>
       </c>
       <c r="V21" s="1">
-        <v>8.815288</v>
+        <v>8.8152880000000007</v>
       </c>
       <c r="W21" s="1">
-        <v>957.240000</v>
+        <v>957.24</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.436100</v>
+        <v>-89.436099999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>31745.908251</v>
+        <v>31745.908251000001</v>
       </c>
       <c r="AA21" s="1">
         <v>8.818308</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.429000</v>
+        <v>964.42899999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.514000</v>
+        <v>-77.513999999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>31756.360447</v>
+        <v>31756.360446999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.821211</v>
+        <v>8.8212109999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.077000</v>
+        <v>969.077</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.019000</v>
+        <v>-75.019000000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>31766.610280</v>
+        <v>31766.610280000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.824058</v>
+        <v>8.8240580000000008</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.225000</v>
+        <v>976.22500000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.522200</v>
+        <v>-79.522199999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>31777.139352</v>
+        <v>31777.139351999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.826983</v>
+        <v>8.8269830000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.203000</v>
+        <v>984.20299999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.995700</v>
+        <v>-90.995699999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>31787.914902</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.829976</v>
+        <v>8.8299760000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.901000</v>
+        <v>993.90099999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.564000</v>
+        <v>-108.56399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>31799.144328</v>
+        <v>31799.144327999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.833096</v>
+        <v>8.8330959999999994</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.030000</v>
+        <v>1002.03</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>31809.846048</v>
+        <v>31809.846047999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.836068</v>
+        <v>8.8360679999999991</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.376000</v>
+        <v>-196.376</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>31820.477259</v>
+        <v>31820.477258999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.839021</v>
+        <v>8.8390210000000007</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.380000</v>
+        <v>1106.3800000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.018000</v>
+        <v>-314.01799999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>31831.022205</v>
+        <v>31831.022205000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.841951</v>
+        <v>8.8419509999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.729000</v>
+        <v>-499.72899999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>31841.616751</v>
+        <v>31841.616751000001</v>
       </c>
       <c r="BT21" s="1">
         <v>8.844894</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.720000</v>
+        <v>1336.72</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.607000</v>
+        <v>-703.60699999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>31852.462307</v>
+        <v>31852.462307000002</v>
       </c>
       <c r="BY21" s="1">
         <v>8.847906</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.970000</v>
+        <v>1472.97</v>
       </c>
       <c r="CA21" s="1">
-        <v>-921.108000</v>
+        <v>-921.10799999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>31865.195569</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.851443</v>
+        <v>8.8514429999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>1832.600000</v>
+        <v>1832.6</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1438.810000</v>
+        <v>-1438.81</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>31693.832260</v>
+        <v>31693.832259999999</v>
       </c>
       <c r="B22" s="1">
-        <v>8.803842</v>
+        <v>8.8038419999999995</v>
       </c>
       <c r="C22" s="1">
-        <v>901.702000</v>
+        <v>901.702</v>
       </c>
       <c r="D22" s="1">
-        <v>-203.183000</v>
+        <v>-203.18299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>31704.215509</v>
+        <v>31704.215509000001</v>
       </c>
       <c r="G22" s="1">
-        <v>8.806727</v>
+        <v>8.8067270000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>920.078000</v>
+        <v>920.07799999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-172.222000</v>
+        <v>-172.22200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>31714.700962</v>
+        <v>31714.700961999999</v>
       </c>
       <c r="L22" s="1">
-        <v>8.809639</v>
+        <v>8.8096390000000007</v>
       </c>
       <c r="M22" s="1">
-        <v>943.836000</v>
+        <v>943.83600000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.968000</v>
+        <v>-121.968</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>31725.242442</v>
+        <v>31725.242441999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.812567</v>
+        <v>8.8125669999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>950.595000</v>
+        <v>950.59500000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.973000</v>
+        <v>-104.973</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>31735.721747</v>
       </c>
       <c r="V22" s="1">
-        <v>8.815478</v>
+        <v>8.8154780000000006</v>
       </c>
       <c r="W22" s="1">
-        <v>957.262000</v>
+        <v>957.26199999999994</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.479900</v>
+        <v>-89.479900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>31746.255423</v>
+        <v>31746.255422999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.818404</v>
+        <v>8.8184039999999992</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.346000</v>
+        <v>964.346</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.373200</v>
+        <v>-77.373199999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>31756.709105</v>
+        <v>31756.709105000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.821308</v>
+        <v>8.8213080000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.103000</v>
+        <v>969.10299999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.050900</v>
+        <v>-75.050899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>31766.959453</v>
+        <v>31766.959452999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.824155</v>
+        <v>8.8241549999999993</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.209000</v>
+        <v>976.20899999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.524600</v>
+        <v>-79.524600000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>31777.815405</v>
+        <v>31777.815405000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.827171</v>
+        <v>8.8271709999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.205000</v>
+        <v>984.20500000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.987500</v>
+        <v>-90.987499999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>31788.611286</v>
+        <v>31788.611285999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.830170</v>
+        <v>8.8301700000000007</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.906000</v>
+        <v>993.90599999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.565000</v>
+        <v>-108.565</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>31799.551543</v>
+        <v>31799.551543000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.833209</v>
+        <v>8.8332090000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.178000</v>
+        <v>-124.178</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>31810.237881</v>
+        <v>31810.237881000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.836177</v>
+        <v>8.8361769999999993</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.180000</v>
+        <v>1040.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.372000</v>
+        <v>-196.37200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>31820.850252</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.839125</v>
+        <v>8.8391249999999992</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.390000</v>
+        <v>1106.3900000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.013000</v>
+        <v>-314.01299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>31831.415069</v>
+        <v>31831.415068999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.842060</v>
+        <v>8.84206</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.706000</v>
+        <v>-499.70600000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>31842.043347</v>
+        <v>31842.043346999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.845012</v>
+        <v>8.8450120000000005</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.710000</v>
+        <v>1336.71</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.650000</v>
+        <v>-703.65</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>31852.882881</v>
+        <v>31852.882881000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.848023</v>
+        <v>8.8480229999999995</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA22" s="1">
-        <v>-921.157000</v>
+        <v>-921.15700000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>31865.711905</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.851587</v>
+        <v>8.8515870000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>1832.190000</v>
+        <v>1832.19</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1437.500000</v>
+        <v>-1437.5</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>31694.172055</v>
+        <v>31694.172054999999</v>
       </c>
       <c r="B23" s="1">
-        <v>8.803937</v>
+        <v>8.8039369999999995</v>
       </c>
       <c r="C23" s="1">
-        <v>901.729000</v>
+        <v>901.72900000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-203.127000</v>
+        <v>-203.12700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>31704.561717</v>
       </c>
       <c r="G23" s="1">
-        <v>8.806823</v>
+        <v>8.8068229999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>919.990000</v>
+        <v>919.99</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.942000</v>
+        <v>-171.94200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>31715.395334</v>
+        <v>31715.395334000001</v>
       </c>
       <c r="L23" s="1">
-        <v>8.809832</v>
+        <v>8.8098320000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>943.788000</v>
+        <v>943.78800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.846000</v>
+        <v>-121.846</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>31725.590106</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.812664</v>
+        <v>8.8126639999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>950.618000</v>
+        <v>950.61800000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.960000</v>
+        <v>-104.96</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>31736.066108</v>
+        <v>31736.066107999999</v>
       </c>
       <c r="V23" s="1">
-        <v>8.815574</v>
+        <v>8.8155739999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>957.170000</v>
+        <v>957.17</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.415500</v>
+        <v>-89.415499999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>31746.601169</v>
+        <v>31746.601169000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.818500</v>
+        <v>8.8185000000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.373000</v>
+        <v>964.37300000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.295700</v>
+        <v>-77.295699999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>31757.358367</v>
+        <v>31757.358367000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.821488</v>
+        <v>8.8214880000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.100000</v>
+        <v>969.1</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.037600</v>
+        <v>-75.037599999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>31767.617649</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.824338</v>
+        <v>8.8243379999999991</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.212000</v>
+        <v>976.21199999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.544300</v>
+        <v>-79.544300000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>31778.247908</v>
+        <v>31778.247908000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.827291</v>
+        <v>8.8272910000000007</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.177000</v>
+        <v>984.17700000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.975200</v>
+        <v>-90.975200000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>31789.007094</v>
+        <v>31789.007094000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.830280</v>
+        <v>8.8302800000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.906000</v>
+        <v>993.90599999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>31799.931976</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.833314</v>
+        <v>8.8333139999999997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.182000</v>
+        <v>-124.182</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>31810.596953</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.836277</v>
+        <v>8.8362770000000008</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.160000</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.363000</v>
+        <v>-196.363</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>31821.215835</v>
+        <v>31821.215834999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.839227</v>
+        <v>8.8392269999999993</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.370000</v>
+        <v>1106.3699999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.991000</v>
+        <v>-313.99099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>31831.846591</v>
+        <v>31831.846591000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.842180</v>
+        <v>8.8421800000000008</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.767000</v>
+        <v>-499.767</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>31842.461440</v>
+        <v>31842.461439999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.845128</v>
+        <v>8.8451280000000008</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.690000</v>
+        <v>1336.69</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.734000</v>
+        <v>-703.73400000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>31853.311920</v>
+        <v>31853.31192</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.848142</v>
+        <v>8.8481419999999993</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.950000</v>
+        <v>1472.95</v>
       </c>
       <c r="CA23" s="1">
-        <v>-921.063000</v>
+        <v>-921.06299999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>31866.232703</v>
+        <v>31866.232703000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.851731</v>
+        <v>8.8517309999999991</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.890000</v>
+        <v>1830.89</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1437.730000</v>
+        <v>-1437.73</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>31694.853025</v>
       </c>
       <c r="B24" s="1">
-        <v>8.804126</v>
+        <v>8.8041260000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>901.731000</v>
+        <v>901.73099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.942000</v>
+        <v>-202.94200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>31705.256157</v>
       </c>
       <c r="G24" s="1">
-        <v>8.807016</v>
+        <v>8.8070160000000008</v>
       </c>
       <c r="H24" s="1">
-        <v>919.843000</v>
+        <v>919.84299999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.862000</v>
+        <v>-171.86199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>31715.741085</v>
+        <v>31715.741085000001</v>
       </c>
       <c r="L24" s="1">
-        <v>8.809928</v>
+        <v>8.8099279999999993</v>
       </c>
       <c r="M24" s="1">
-        <v>943.845000</v>
+        <v>943.84500000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.816000</v>
+        <v>-121.816</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>31725.941309</v>
+        <v>31725.941309000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.812761</v>
+        <v>8.8127610000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>950.647000</v>
+        <v>950.64700000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.946000</v>
+        <v>-104.946</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>31736.409834</v>
+        <v>31736.409833999998</v>
       </c>
       <c r="V24" s="1">
-        <v>8.815669</v>
+        <v>8.8156689999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>957.231000</v>
+        <v>957.23099999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.357300</v>
+        <v>-89.357299999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>31747.255852</v>
+        <v>31747.255851999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.818682</v>
+        <v>8.8186820000000008</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.421000</v>
+        <v>964.42100000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.403400</v>
+        <v>-77.403400000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>31757.738304</v>
+        <v>31757.738303999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.821594</v>
+        <v>8.8215939999999993</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.050000</v>
+        <v>969.05</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.048100</v>
+        <v>-75.048100000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>31768.004002</v>
+        <v>31768.004002000001</v>
       </c>
       <c r="AK24" s="1">
         <v>8.824446</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.209000</v>
+        <v>976.20899999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.484900</v>
+        <v>-79.484899999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>31778.607971</v>
+        <v>31778.607971000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.827391</v>
+        <v>8.8273910000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.207000</v>
+        <v>984.20699999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.952600</v>
+        <v>-90.952600000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>31789.368676</v>
+        <v>31789.368675999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.830380</v>
+        <v>8.8303799999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.916000</v>
+        <v>993.91600000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.557000</v>
+        <v>-108.557</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>31800.289125</v>
+        <v>31800.289124999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.833414</v>
+        <v>8.8334139999999994</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.193000</v>
+        <v>-124.193</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>31811.018088</v>
+        <v>31811.018088000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.836394</v>
+        <v>8.8363940000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.190000</v>
+        <v>1040.19</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.358000</v>
+        <v>-196.358</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>31821.671626</v>
+        <v>31821.671625999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.839353</v>
+        <v>8.8393529999999991</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.390000</v>
+        <v>1106.3900000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.991000</v>
+        <v>-313.99099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>31832.234956</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.842287</v>
+        <v>8.8422870000000007</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.707000</v>
+        <v>-499.70699999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>31842.891471</v>
+        <v>31842.891470999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.845248</v>
+        <v>8.8452479999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.640000</v>
+        <v>1336.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.829000</v>
+        <v>-703.82899999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>31853.730543</v>
+        <v>31853.730543000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.848258</v>
+        <v>8.8482579999999995</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.010000</v>
+        <v>1473.01</v>
       </c>
       <c r="CA24" s="1">
-        <v>-921.048000</v>
+        <v>-921.048</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>31866.749038</v>
+        <v>31866.749038000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.851875</v>
+        <v>8.8518749999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.270000</v>
+        <v>1831.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1439.020000</v>
+        <v>-1439.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>31695.196754</v>
+        <v>31695.196754000001</v>
       </c>
       <c r="B25" s="1">
-        <v>8.804221</v>
+        <v>8.8042210000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>901.692000</v>
+        <v>901.69200000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-203.337000</v>
+        <v>-203.33699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>31705.598853</v>
       </c>
       <c r="G25" s="1">
-        <v>8.807111</v>
+        <v>8.8071110000000008</v>
       </c>
       <c r="H25" s="1">
-        <v>920.211000</v>
+        <v>920.21100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.120000</v>
+        <v>-172.12</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>31716.086759</v>
+        <v>31716.086759000002</v>
       </c>
       <c r="L25" s="1">
-        <v>8.810024</v>
+        <v>8.8100240000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>943.672000</v>
+        <v>943.67200000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.663000</v>
+        <v>-121.663</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>31726.601945</v>
+        <v>31726.601944999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.812945</v>
+        <v>8.8129449999999991</v>
       </c>
       <c r="R25" s="1">
-        <v>950.573000</v>
+        <v>950.57299999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.901000</v>
+        <v>-104.901</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>31737.061579</v>
+        <v>31737.061579000001</v>
       </c>
       <c r="V25" s="1">
-        <v>8.815850</v>
+        <v>8.8158499999999993</v>
       </c>
       <c r="W25" s="1">
-        <v>957.196000</v>
+        <v>957.19600000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.330800</v>
+        <v>-89.330799999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>31747.647725</v>
+        <v>31747.647724999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.818791</v>
+        <v>8.8187909999999992</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.316000</v>
+        <v>964.31600000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.361900</v>
+        <v>-77.361900000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>31758.080542</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.821689</v>
+        <v>8.8216889999999992</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.102000</v>
+        <v>969.10199999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.018500</v>
+        <v>-75.018500000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>31768.352192</v>
+        <v>31768.352191999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.824542</v>
+        <v>8.8245419999999992</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.240000</v>
+        <v>976.24</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.555700</v>
+        <v>-79.555700000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>31778.969589</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.827492</v>
+        <v>8.8274919999999995</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.211000</v>
+        <v>984.21100000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.953500</v>
+        <v>-90.953500000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>31789.779366</v>
+        <v>31789.779365999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.830494</v>
+        <v>8.8304939999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.903000</v>
+        <v>993.90300000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.571000</v>
+        <v>-108.571</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>31800.712182</v>
+        <v>31800.712181999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.833531</v>
+        <v>8.8335310000000007</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.176000</v>
+        <v>-124.176</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>31811.319128</v>
+        <v>31811.319127999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.836478</v>
+        <v>8.8364779999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.190000</v>
+        <v>1040.19</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.353000</v>
+        <v>-196.35300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>31821.965754</v>
+        <v>31821.965754000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.839435</v>
+        <v>8.8394349999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.400000</v>
+        <v>1106.4000000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.019000</v>
+        <v>-314.01900000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>31832.659003</v>
+        <v>31832.659003000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.842405</v>
+        <v>8.8424049999999994</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.733000</v>
+        <v>-499.733</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>31843.302190</v>
+        <v>31843.302189999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.845362</v>
+        <v>8.8453619999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.700000</v>
+        <v>1336.7</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.903000</v>
+        <v>-703.90300000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>31854.174959</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.848382</v>
+        <v>8.8483820000000009</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA25" s="1">
-        <v>-921.066000</v>
+        <v>-921.06600000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>31867.267359</v>
+        <v>31867.267359000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.852019</v>
+        <v>8.8520190000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>1832.330000</v>
+        <v>1832.33</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1438.560000</v>
+        <v>-1438.56</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>31695.538033</v>
+        <v>31695.538033000001</v>
       </c>
       <c r="B26" s="1">
         <v>8.804316</v>
       </c>
       <c r="C26" s="1">
-        <v>901.771000</v>
+        <v>901.77099999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-203.318000</v>
+        <v>-203.31800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>31706.253572</v>
+        <v>31706.253572000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.807293</v>
+        <v>8.8072929999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>919.955000</v>
+        <v>919.95500000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-172.045000</v>
+        <v>-172.04499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>31716.747458</v>
+        <v>31716.747458000002</v>
       </c>
       <c r="L26" s="1">
-        <v>8.810208</v>
+        <v>8.8102079999999994</v>
       </c>
       <c r="M26" s="1">
-        <v>943.708000</v>
+        <v>943.70799999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.492000</v>
+        <v>-121.492</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>31726.986343</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.813052</v>
+        <v>8.8130520000000008</v>
       </c>
       <c r="R26" s="1">
-        <v>950.574000</v>
+        <v>950.57399999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.822000</v>
+        <v>-104.822</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>31737.439531</v>
       </c>
       <c r="V26" s="1">
-        <v>8.815955</v>
+        <v>8.8159550000000007</v>
       </c>
       <c r="W26" s="1">
-        <v>957.260000</v>
+        <v>957.26</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.269000</v>
+        <v>-89.269000000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>31747.999385</v>
+        <v>31747.999384999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.818889</v>
+        <v>8.8188890000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.367000</v>
+        <v>964.36699999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.432500</v>
+        <v>-77.432500000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>31758.424271</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.821785</v>
+        <v>8.8217850000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.090000</v>
+        <v>969.09</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.052600</v>
+        <v>-75.052599999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>31768.704880</v>
+        <v>31768.704880000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.824640</v>
+        <v>8.8246400000000005</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.225000</v>
+        <v>976.22500000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.533900</v>
+        <v>-79.533900000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>31779.390659</v>
+        <v>31779.390659000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.827609</v>
+        <v>8.8276090000000007</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.205000</v>
+        <v>984.20500000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.955400</v>
+        <v>-90.955399999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>31790.098293</v>
+        <v>31790.098292999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.830583</v>
+        <v>8.8305830000000007</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.916000</v>
+        <v>993.91600000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.571000</v>
+        <v>-108.571</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>31801.008821</v>
+        <v>31801.008820999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.833614</v>
+        <v>8.8336140000000007</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.184000</v>
+        <v>-124.184</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>31811.680251</v>
+        <v>31811.680251000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.836578</v>
+        <v>8.8365779999999994</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.170000</v>
+        <v>1040.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.373000</v>
+        <v>-196.37299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>31822.366057</v>
+        <v>31822.366056999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.839546</v>
+        <v>8.8395460000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.380000</v>
+        <v>1106.3800000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.038000</v>
+        <v>-314.03800000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>31833.053819</v>
+        <v>31833.053819000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.842515</v>
+        <v>8.8425150000000006</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.699000</v>
+        <v>-499.69900000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>31843.735165</v>
+        <v>31843.735164999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.845482</v>
+        <v>8.8454820000000005</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.580000</v>
+        <v>1336.58</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.957000</v>
+        <v>-703.95699999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>31854.689816</v>
+        <v>31854.689815999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.848525</v>
+        <v>8.8485250000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.900000</v>
+        <v>1472.9</v>
       </c>
       <c r="CA26" s="1">
-        <v>-921.143000</v>
+        <v>-921.14300000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>31867.784717</v>
+        <v>31867.784716999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.852162</v>
+        <v>8.8521619999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1832.250000</v>
+        <v>1832.25</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1438.710000</v>
+        <v>-1438.71</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>